--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_DLQuocHung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_DLQuocHung.xlsx
@@ -261,10 +261,10 @@
     <t>Khởi tạo lại thiết bị, nâng cấp FW cho thiết bị</t>
   </si>
   <si>
-    <t>Thẻe</t>
-  </si>
-  <si>
     <t>02/12/2020</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -755,6 +755,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,37 +803,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1148,43 +1148,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="65"/>
@@ -1229,58 +1229,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="100" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="92" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1305,24 +1305,24 @@
       <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1332,7 +1332,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>44</v>
@@ -1363,7 +1363,7 @@
         <v>66</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>19</v>
@@ -1374,7 +1374,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="62"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1405,7 +1405,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="62"/>
-      <c r="V7" s="86"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
       <c r="U11" s="62"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
       <c r="U12" s="62"/>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1581,7 +1581,7 @@
       <c r="S13" s="84"/>
       <c r="T13" s="62"/>
       <c r="U13" s="62"/>
-      <c r="V13" s="86"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="64"/>
-      <c r="I14" s="102"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="84"/>
       <c r="K14" s="80"/>
       <c r="L14" s="55"/>
@@ -1610,7 +1610,7 @@
       <c r="S14" s="84"/>
       <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="86"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="62"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="86"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="62"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2902,10 +2902,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="88" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="88">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2934,8 +2934,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="89"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -2961,8 +2961,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4249,6 +4249,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4259,16 +4269,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4311,43 +4311,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -4392,58 +4392,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="100" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="92" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4468,24 +4468,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4511,7 +4511,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4542,7 +4542,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="86"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -4718,7 +4718,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="86"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="86"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="86"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6039,10 +6039,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="88" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="88">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6071,8 +6071,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="89"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6098,8 +6098,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7386,6 +7386,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7396,16 +7406,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
